--- a/Шульгин/завершившие.xlsx
+++ b/Шульгин/завершившие.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671">
   <si>
     <t>Username</t>
   </si>
@@ -5018,6 +5018,15 @@
   </si>
   <si>
     <t>Павлухина</t>
+  </si>
+  <si>
+    <t>baskakova_t@cntz.ru</t>
+  </si>
+  <si>
+    <t>kardvv@mail.ru</t>
+  </si>
+  <si>
+    <t>kovalchuklidia@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -5030,7 +5039,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5043,6 +5052,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2892FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5390,7 +5413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -5410,6 +5433,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5516,158 +5569,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5988,10 +6048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E486"/>
+  <dimension ref="A1:E491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="B472" sqref="B472"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="C491" sqref="C491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -14246,7 +14306,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" ht="14.75" spans="1:5">
       <c r="A486" s="2" t="s">
         <v>1665</v>
       </c>
@@ -14261,6 +14321,31 @@
       </c>
       <c r="E486" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="487" ht="16.75" spans="2:2">
+      <c r="B487" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="488" ht="16.75" spans="2:2">
+      <c r="B488" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="489" ht="15.75" spans="2:2">
+      <c r="B489" s="5" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="490" ht="15.75" spans="2:2">
+      <c r="B490" s="5" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="491" ht="15.75" spans="2:2">
+      <c r="B491" s="5" t="s">
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
